--- a/Projects/GSKAU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKAU/Data/gsk_set_up.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">Include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral ,Pain</t>
   </si>
   <si>
     <t xml:space="preserve">Linear SOS</t>
@@ -87,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -124,12 +121,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -194,7 +185,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -229,10 +220,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -307,7 +294,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -325,21 +312,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="1013" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1014" style="0" width="8.78542510121457"/>
   </cols>
@@ -390,7 +377,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -410,9 +397,7 @@
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="ALZ2" s="0"/>
       <c r="AMA2" s="0"/>
@@ -428,7 +413,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -446,14 +431,12 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>

--- a/Projects/GSKAU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKAU/Data/gsk_set_up.xlsx
@@ -14,8 +14,8 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -65,16 +65,28 @@
     <t xml:space="preserve">Facings SOS</t>
   </si>
   <si>
+    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult,Child,Denture,NRT,Toothpaste,Topical,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf, GI Main Shelf, Skin Main Shelf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Include </t>
   </si>
   <si>
+    <t xml:space="preserve">Linear SOS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
   </si>
 </sst>
 </file>
@@ -185,7 +197,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -215,11 +227,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -294,7 +314,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -305,33 +325,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="1013" min="12" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1014" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1013" min="12" style="1" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="1025" min="1014" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -365,26 +385,17 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="ALZ1" s="0"/>
-      <c r="AMA1" s="0"/>
-      <c r="AMB1" s="0"/>
-      <c r="AMC1" s="0"/>
-      <c r="AMD1" s="0"/>
-      <c r="AME1" s="0"/>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -392,33 +403,26 @@
       <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="ALZ2" s="0"/>
-      <c r="AMA2" s="0"/>
-      <c r="AMB2" s="0"/>
-      <c r="AMC2" s="0"/>
-      <c r="AMD2" s="0"/>
-      <c r="AME2" s="0"/>
-      <c r="AMF2" s="0"/>
-      <c r="AMG2" s="0"/>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
+    <row r="3" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>13</v>
@@ -426,30 +430,38 @@
       <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5"/>
+    <row r="4" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/GSKAU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKAU/Data/gsk_set_up.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">Include SubCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include POSM</t>
   </si>
   <si>
     <t xml:space="preserve">Facings SOS</t>
@@ -325,30 +328,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="N9" activeCellId="0" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="1013" min="12" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="1025" min="1014" style="0" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1014" min="13" style="1" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -385,78 +389,87 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
       <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/GSKAU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKAU/Data/gsk_set_up.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -68,19 +68,16 @@
     <t xml:space="preserve">Facings SOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf</t>
+    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf, NRT Main Shelf</t>
   </si>
   <si>
     <t xml:space="preserve">Exclude</t>
   </si>
   <si>
-    <t xml:space="preserve">Adult,Child,Denture,NRT,Toothpaste,Topical,</t>
+    <t xml:space="preserve">Adult,Child,Denture,NRT,Toothpaste,Topical,Osteo</t>
   </si>
   <si>
     <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf, GI Main Shelf, Skin Main Shelf</t>
   </si>
   <si>
     <t xml:space="preserve">Include </t>
@@ -99,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -136,6 +133,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -200,7 +203,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -239,6 +242,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -331,25 +338,24 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N9" activeCellId="0" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1014" min="13" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.67611336032389"/>
@@ -393,7 +399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -426,11 +432,11 @@
         <v>16</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>14</v>
@@ -444,26 +450,26 @@
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>

--- a/Projects/GSKAU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKAU/Data/gsk_set_up.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">Exclude</t>
   </si>
   <si>
-    <t xml:space="preserve">Adult,Child,Denture,NRT,Toothpaste,Topical,Osteo</t>
+    <t xml:space="preserve">Adult,Child,Denture,NRT,Toothpaste,Topical,Osteo,Pain Other,Respiratory Other</t>
   </si>
   <si>
     <t xml:space="preserve">Availability</t>
@@ -232,6 +232,10 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -242,10 +246,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -324,7 +324,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -338,24 +338,24 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1014" min="13" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.67611336032389"/>
@@ -407,44 +407,44 @@
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9" t="s">
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="0"/>
@@ -459,23 +459,23 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/GSKAU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKAU/Data/gsk_set_up.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -74,6 +74,9 @@
     <t xml:space="preserve">Exclude</t>
   </si>
   <si>
+    <t xml:space="preserve">Include</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adult,Child,Denture,NRT,Toothpaste,Topical,Osteo,Pain Other,Respiratory Other</t>
   </si>
   <si>
@@ -84,9 +87,6 @@
   </si>
   <si>
     <t xml:space="preserve">Linear SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include</t>
   </si>
 </sst>
 </file>
@@ -96,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -133,12 +133,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,7 +197,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -230,10 +224,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -324,7 +314,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -338,24 +328,24 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1014" min="13" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.67611336032389"/>
@@ -407,75 +397,75 @@
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10" t="s">
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="10"/>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/GSKAU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKAU/Data/gsk_set_up.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -96,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -133,6 +133,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -197,7 +203,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -238,7 +244,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -328,24 +342,24 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1014" min="13" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.67611336032389"/>
@@ -389,7 +403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="42.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -415,7 +429,9 @@
       <c r="K2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -440,8 +456,10 @@
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -465,7 +483,9 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="L4" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/GSKAU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKAU/Data/gsk_set_up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Functional KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">Facings SOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf, NRT Main Shelf</t>
+    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf, NRT Main Shelf, Other Main Shelf</t>
   </si>
   <si>
     <t xml:space="preserve">Exclude</t>
@@ -96,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -133,12 +133,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,7 +197,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,15 +238,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -328,7 +318,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -342,24 +332,24 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L4" activeCellId="0" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1014" min="13" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.67611336032389"/>
@@ -403,7 +393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="42.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -429,11 +419,11 @@
       <c r="K2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -456,8 +446,8 @@
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="11" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Projects/GSKAU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKAU/Data/gsk_set_up.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -68,7 +68,9 @@
     <t xml:space="preserve">Facings SOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf, NRT Main Shelf, Other Main Shelf</t>
+    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf, NRT Main Shelf, Other Main Shelf, Pain Main Shelf – Grcy,
+Oral Main Shelf – Grcy,
+NRT Main Shelf – Grcy</t>
   </si>
   <si>
     <t xml:space="preserve">Exclude</t>
@@ -81,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf, NRT Main Shelf, Other Main Shelf, Pain Main Shelf – Grcy, Oral Main Shelf – Grcy, NRT Main Shelf – Grcy</t>
   </si>
   <si>
     <t xml:space="preserve">Include </t>
@@ -318,7 +323,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -336,20 +341,20 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K19" activeCellId="0" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="55.7732793522267"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1014" min="13" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.67611336032389"/>
@@ -393,7 +398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="68.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -423,16 +428,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>14</v>
@@ -453,7 +458,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>

--- a/Projects/GSKAU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKAU/Data/gsk_set_up.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -68,9 +68,7 @@
     <t xml:space="preserve">Facings SOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf, NRT Main Shelf, Other Main Shelf, Pain Main Shelf – Grcy,
-Oral Main Shelf – Grcy,
-NRT Main Shelf – Grcy</t>
+    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf, NRT Main Shelf, Other Main Shelf, Pain Main Shelf - Grcy, Oral Main Shelf - Grcy, NRT Main Shelf - Grcy</t>
   </si>
   <si>
     <t xml:space="preserve">Exclude</t>
@@ -83,9 +81,6 @@
   </si>
   <si>
     <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf, NRT Main Shelf, Other Main Shelf, Pain Main Shelf – Grcy, Oral Main Shelf – Grcy, NRT Main Shelf – Grcy</t>
   </si>
   <si>
     <t xml:space="preserve">Include </t>
@@ -341,20 +336,20 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="55.7732793522267"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="91.4453441295547"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1014" min="13" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.67611336032389"/>
@@ -398,7 +393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="68.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -428,16 +423,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>14</v>
@@ -458,10 +453,10 @@
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>

--- a/Projects/GSKAU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKAU/Data/gsk_set_up.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">Facings SOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf, NRT Main Shelf, Other Main Shelf, Pain Main Shelf - Grcy, Oral Main Shelf - Grcy, NRT Main Shelf - Grcy</t>
+    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf, NRT Main Shelf, Other Main Shelf, Pain Main Shelf - Grcy, Oral Main Shelf - Grcy, NRT Main Shelf – Grcy, Wellness Main Shelf</t>
   </si>
   <si>
     <t xml:space="preserve">Exclude</t>
@@ -336,20 +336,20 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="91.4453441295547"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="92.2307692307692"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1014" min="13" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.67611336032389"/>
@@ -423,7 +423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>

--- a/Projects/GSKAU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKAU/Data/gsk_set_up.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">Facings SOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf, NRT Main Shelf, Other Main Shelf, Pain Main Shelf - Grcy, Oral Main Shelf - Grcy, NRT Main Shelf – Grcy, Wellness Main Shelf</t>
+    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf, NRT Main Shelf, Other Main Shelf, Pain Main Shelf - Grcy, Oral Main Shelf - Grcy, NRT Main Shelf – Grcy, Wellness Main Shelf, Wellness Main Shelf – Grcy</t>
   </si>
   <si>
     <t xml:space="preserve">Exclude</t>
@@ -318,7 +318,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -341,15 +341,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="92.2307692307692"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="93.085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1014" min="13" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.67611336032389"/>

--- a/Projects/GSKAU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKAU/Data/gsk_set_up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Functional KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">Facings SOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf, NRT Main Shelf, Other Main Shelf, Pain Main Shelf - Grcy, Oral Main Shelf - Grcy, NRT Main Shelf – Grcy, Wellness Main Shelf, Wellness Main Shelf – Grcy</t>
+    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf, NRT Main Shelf, Other Main Shelf, Pain Main Shelf - Grcy, Oral Main Shelf - Grcy, NRT Main Shelf – Grcy, Wellness Main Shelf, Wellness Main Shelf - Grcy</t>
   </si>
   <si>
     <t xml:space="preserve">Exclude</t>
@@ -135,7 +135,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +146,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -197,7 +203,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,6 +250,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -331,28 +353,26 @@
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="93.085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1014" min="13" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.67611336032389"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="31.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="13" style="1" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="8.68"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -451,36 +471,40 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8" t="s">
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="15" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/GSKAU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKAU/Data/gsk_set_up.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Include</t>
   </si>
   <si>
-    <t xml:space="preserve">Adult,Child,Denture,NRT,Toothpaste,Topical,Osteo,Pain Other,Respiratory Other</t>
+    <t xml:space="preserve">Adult,Child,Denture,NRT,Sensitive Toothpaste,Topical,Osteo,Pain Other</t>
   </si>
   <si>
     <t xml:space="preserve">Availability</t>
@@ -353,10 +353,10 @@
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -413,7 +413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -471,7 +471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
         <v>19</v>
       </c>

--- a/Projects/GSKAU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKAU/Data/gsk_set_up.xlsx
@@ -10,11 +10,7 @@
   <sheets>
     <sheet name="Functional KPIs" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -87,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">Linear SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult,Child,Topical,Osteo,Pain Other</t>
   </si>
 </sst>
 </file>
@@ -203,7 +202,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -252,16 +251,20 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -340,12 +343,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</externalLink>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -353,26 +350,26 @@
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="11.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="31.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="13" style="1" width="8.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="13" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -413,7 +410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -443,7 +440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -463,15 +460,12 @@
       <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
       <c r="K3" s="10"/>
       <c r="L3" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
@@ -494,8 +488,8 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="15" t="s">
-        <v>16</v>
+      <c r="K4" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>14</v>

--- a/Projects/GSKAU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKAU/Data/gsk_set_up.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Functional KPIs" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$L$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Facings SOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf, NRT Main Shelf, Other Main Shelf, Pain Main Shelf - Grcy, Oral Main Shelf - Grcy, NRT Main Shelf – Grcy, Wellness Main Shelf, Wellness Main Shelf - Grcy</t>
+    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf, NRT Main Shelf, Other Main Shelf, Pain Main Shelf - Grcy, Oral Main Shelf - Grcy, NRT Main Shelf – Grcy, Wellness Main Shelf, Wellness Main Shelf - Grcy, Pain Main Shelf - Live, Oral Main Shelf - Live, Wellness Main Shelf - Live</t>
   </si>
   <si>
     <t xml:space="preserve">Exclude</t>
@@ -202,7 +202,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -249,22 +249,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -343,6 +327,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -350,10 +338,10 @@
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,36 +454,37 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16" t="s">
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L4"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -503,5 +492,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/GSKAU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKAU/Data/gsk_set_up.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">Adult,Child,Topical,Osteo,Pain Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSK_LAYOUT_COMPLIANCE_BLOCK</t>
   </si>
 </sst>
 </file>
@@ -202,7 +205,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -253,6 +256,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -336,17 +343,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="16.43"/>
@@ -356,8 +363,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="13" style="1" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="13" style="1" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="8.7"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -398,7 +405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -428,7 +435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -453,7 +460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -483,6 +490,15 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:L4"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
